--- a/Test/MultiPSO/Explore100Exploit200/ALLCONError_200.xlsx
+++ b/Test/MultiPSO/Explore100Exploit200/ALLCONError_200.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,31 +423,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.00225036522869398</v>
+        <v>0.0001155879814846302</v>
       </c>
       <c r="B1" t="n">
-        <v>0.001048879689679974</v>
+        <v>0.0004931087691937673</v>
       </c>
       <c r="C1" t="n">
-        <v>0.0002766995403195856</v>
+        <v>0.0002574035815189248</v>
       </c>
       <c r="D1" t="n">
-        <v>0.001780472297187974</v>
+        <v>0.0008049687112154269</v>
       </c>
       <c r="E1" t="n">
-        <v>0.002221782455809207</v>
+        <v>0.0005150952716576201</v>
       </c>
       <c r="F1" t="n">
-        <v>0.0003187061176773701</v>
+        <v>0.0003126580903813137</v>
       </c>
       <c r="G1" t="n">
-        <v>0.002469121816923629</v>
+        <v>0.0005775406977976701</v>
       </c>
       <c r="H1" t="n">
-        <v>0.0007984437504745473</v>
+        <v>0.001070223558892512</v>
       </c>
       <c r="I1" t="n">
-        <v>0.002080256181814979</v>
+        <v>7.071678047436337e-05</v>
+      </c>
+      <c r="J1" t="n">
+        <v>0.0007114746141269147</v>
       </c>
     </row>
   </sheetData>
